--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75992278041955</v>
+        <v>1.906096</v>
       </c>
       <c r="H2">
-        <v>1.75992278041955</v>
+        <v>5.718287999999999</v>
       </c>
       <c r="I2">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918173</v>
       </c>
       <c r="J2">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918174</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.83685501615593</v>
+        <v>4.879043333333333</v>
       </c>
       <c r="N2">
-        <v>4.83685501615593</v>
+        <v>14.63713</v>
       </c>
       <c r="O2">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741644</v>
       </c>
       <c r="P2">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741645</v>
       </c>
       <c r="Q2">
-        <v>8.512491328519392</v>
+        <v>9.299924981493332</v>
       </c>
       <c r="R2">
-        <v>8.512491328519392</v>
+        <v>83.69932483343999</v>
       </c>
       <c r="S2">
-        <v>0.03906306792270374</v>
+        <v>0.03748921788966791</v>
       </c>
       <c r="T2">
-        <v>0.03906306792270374</v>
+        <v>0.03748921788966792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75992278041955</v>
+        <v>1.906096</v>
       </c>
       <c r="H3">
-        <v>1.75992278041955</v>
+        <v>5.718287999999999</v>
       </c>
       <c r="I3">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918173</v>
       </c>
       <c r="J3">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.05810525859197</v>
+        <v>4.07943</v>
       </c>
       <c r="N3">
-        <v>4.05810525859197</v>
+        <v>12.23829</v>
       </c>
       <c r="O3">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="P3">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="Q3">
-        <v>7.141951889936378</v>
+        <v>7.77578520528</v>
       </c>
       <c r="R3">
-        <v>7.141951889936378</v>
+        <v>69.98206684752</v>
       </c>
       <c r="S3">
-        <v>0.03277378396176201</v>
+        <v>0.03134521046181485</v>
       </c>
       <c r="T3">
-        <v>0.03277378396176201</v>
+        <v>0.03134521046181486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75992278041955</v>
+        <v>1.906096</v>
       </c>
       <c r="H4">
-        <v>1.75992278041955</v>
+        <v>5.718287999999999</v>
       </c>
       <c r="I4">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918173</v>
       </c>
       <c r="J4">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918174</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.04557261818589</v>
+        <v>2.143236333333333</v>
       </c>
       <c r="N4">
-        <v>2.04557261818589</v>
+        <v>6.429709</v>
       </c>
       <c r="O4">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="P4">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="Q4">
-        <v>3.60004984974781</v>
+        <v>4.085214202021333</v>
       </c>
       <c r="R4">
-        <v>3.60004984974781</v>
+        <v>36.76692781819199</v>
       </c>
       <c r="S4">
-        <v>0.01652030955199554</v>
+        <v>0.016468034489559</v>
       </c>
       <c r="T4">
-        <v>0.01652030955199554</v>
+        <v>0.01646803448955901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75992278041955</v>
+        <v>1.906096</v>
       </c>
       <c r="H5">
-        <v>1.75992278041955</v>
+        <v>5.718287999999999</v>
       </c>
       <c r="I5">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918173</v>
       </c>
       <c r="J5">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918174</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.22031270336852</v>
+        <v>3.323978333333333</v>
       </c>
       <c r="N5">
-        <v>3.22031270336852</v>
+        <v>9.971935</v>
       </c>
       <c r="O5">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="P5">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="Q5">
-        <v>5.667501686732724</v>
+        <v>6.335821805253333</v>
       </c>
       <c r="R5">
-        <v>5.667501686732724</v>
+        <v>57.02239624727999</v>
       </c>
       <c r="S5">
-        <v>0.02600766271551498</v>
+        <v>0.02554052905156991</v>
       </c>
       <c r="T5">
-        <v>0.02600766271551498</v>
+        <v>0.02554052905156992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75992278041955</v>
+        <v>1.906096</v>
       </c>
       <c r="H6">
-        <v>1.75992278041955</v>
+        <v>5.718287999999999</v>
       </c>
       <c r="I6">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918173</v>
       </c>
       <c r="J6">
-        <v>0.1278661704561001</v>
+        <v>0.1256946322918174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.67175949224419</v>
+        <v>1.932870333333333</v>
       </c>
       <c r="N6">
-        <v>1.67175949224419</v>
+        <v>5.798611</v>
       </c>
       <c r="O6">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="P6">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="Q6">
-        <v>2.94216761378317</v>
+        <v>3.684236410885333</v>
       </c>
       <c r="R6">
-        <v>2.94216761378317</v>
+        <v>33.158127697968</v>
       </c>
       <c r="S6">
-        <v>0.0135013463041238</v>
+        <v>0.01485164039920566</v>
       </c>
       <c r="T6">
-        <v>0.0135013463041238</v>
+        <v>0.01485164039920566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.48184037802267</v>
+        <v>4.494661333333333</v>
       </c>
       <c r="H7">
-        <v>4.48184037802267</v>
+        <v>13.483984</v>
       </c>
       <c r="I7">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="J7">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.83685501615593</v>
+        <v>4.879043333333333</v>
       </c>
       <c r="N7">
-        <v>4.83685501615593</v>
+        <v>14.63713</v>
       </c>
       <c r="O7">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741644</v>
       </c>
       <c r="P7">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741645</v>
       </c>
       <c r="Q7">
-        <v>21.67801211404914</v>
+        <v>21.92964741399111</v>
       </c>
       <c r="R7">
-        <v>21.67801211404914</v>
+        <v>197.36682672592</v>
       </c>
       <c r="S7">
-        <v>0.09947847544974647</v>
+        <v>0.08840128622356828</v>
       </c>
       <c r="T7">
-        <v>0.09947847544974647</v>
+        <v>0.08840128622356831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.48184037802267</v>
+        <v>4.494661333333333</v>
       </c>
       <c r="H8">
-        <v>4.48184037802267</v>
+        <v>13.483984</v>
       </c>
       <c r="I8">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="J8">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.05810525859197</v>
+        <v>4.07943</v>
       </c>
       <c r="N8">
-        <v>4.05810525859197</v>
+        <v>12.23829</v>
       </c>
       <c r="O8">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="P8">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="Q8">
-        <v>18.18778000622362</v>
+        <v>18.33565628304</v>
       </c>
       <c r="R8">
-        <v>18.18778000622362</v>
+        <v>165.02090654736</v>
       </c>
       <c r="S8">
-        <v>0.08346210977813483</v>
+        <v>0.07391343638930814</v>
       </c>
       <c r="T8">
-        <v>0.08346210977813483</v>
+        <v>0.07391343638930814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.48184037802267</v>
+        <v>4.494661333333333</v>
       </c>
       <c r="H9">
-        <v>4.48184037802267</v>
+        <v>13.483984</v>
       </c>
       <c r="I9">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="J9">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.04557261818589</v>
+        <v>2.143236333333333</v>
       </c>
       <c r="N9">
-        <v>2.04557261818589</v>
+        <v>6.429709</v>
       </c>
       <c r="O9">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="P9">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="Q9">
-        <v>9.167929956363071</v>
+        <v>9.633121475628444</v>
       </c>
       <c r="R9">
-        <v>9.167929956363071</v>
+        <v>86.698093280656</v>
       </c>
       <c r="S9">
-        <v>0.04207081766957775</v>
+        <v>0.03883237667789062</v>
       </c>
       <c r="T9">
-        <v>0.04207081766957775</v>
+        <v>0.03883237667789062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.48184037802267</v>
+        <v>4.494661333333333</v>
       </c>
       <c r="H10">
-        <v>4.48184037802267</v>
+        <v>13.483984</v>
       </c>
       <c r="I10">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="J10">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.22031270336852</v>
+        <v>3.323978333333333</v>
       </c>
       <c r="N10">
-        <v>3.22031270336852</v>
+        <v>9.971935</v>
       </c>
       <c r="O10">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="P10">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="Q10">
-        <v>14.43292750381637</v>
+        <v>14.94015688767111</v>
       </c>
       <c r="R10">
-        <v>14.43292750381637</v>
+        <v>134.46141198904</v>
       </c>
       <c r="S10">
-        <v>0.06623142457909566</v>
+        <v>0.0602257327862647</v>
       </c>
       <c r="T10">
-        <v>0.06623142457909566</v>
+        <v>0.0602257327862647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.48184037802267</v>
+        <v>4.494661333333333</v>
       </c>
       <c r="H11">
-        <v>4.48184037802267</v>
+        <v>13.483984</v>
       </c>
       <c r="I11">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="J11">
-        <v>0.3256255172722194</v>
+        <v>0.2963936777421404</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.67175949224419</v>
+        <v>1.932870333333333</v>
       </c>
       <c r="N11">
-        <v>1.67175949224419</v>
+        <v>5.798611</v>
       </c>
       <c r="O11">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="P11">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="Q11">
-        <v>7.492559194682688</v>
+        <v>8.687597549580445</v>
       </c>
       <c r="R11">
-        <v>7.492559194682688</v>
+        <v>78.18837794622399</v>
       </c>
       <c r="S11">
-        <v>0.03438268979566474</v>
+        <v>0.03502084566510864</v>
       </c>
       <c r="T11">
-        <v>0.03438268979566474</v>
+        <v>0.03502084566510864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.27845791044236</v>
+        <v>3.284408333333333</v>
       </c>
       <c r="H12">
-        <v>3.27845791044236</v>
+        <v>9.853225</v>
       </c>
       <c r="I12">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="J12">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.83685501615593</v>
+        <v>4.879043333333333</v>
       </c>
       <c r="N12">
-        <v>4.83685501615593</v>
+        <v>14.63713</v>
       </c>
       <c r="O12">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741644</v>
       </c>
       <c r="P12">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741645</v>
       </c>
       <c r="Q12">
-        <v>15.85742558937922</v>
+        <v>16.02477058269444</v>
       </c>
       <c r="R12">
-        <v>15.85742558937922</v>
+        <v>144.22293524425</v>
       </c>
       <c r="S12">
-        <v>0.07276831998663336</v>
+        <v>0.06459795290844447</v>
       </c>
       <c r="T12">
-        <v>0.07276831998663336</v>
+        <v>0.06459795290844449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.27845791044236</v>
+        <v>3.284408333333333</v>
       </c>
       <c r="H13">
-        <v>3.27845791044236</v>
+        <v>9.853225</v>
       </c>
       <c r="I13">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="J13">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.05810525859197</v>
+        <v>4.07943</v>
       </c>
       <c r="N13">
-        <v>4.05810525859197</v>
+        <v>12.23829</v>
       </c>
       <c r="O13">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="P13">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="Q13">
-        <v>13.30432728643858</v>
+        <v>13.39851388725</v>
       </c>
       <c r="R13">
-        <v>13.30432728643858</v>
+        <v>120.58662498525</v>
       </c>
       <c r="S13">
-        <v>0.06105237825204643</v>
+        <v>0.05401116756494525</v>
       </c>
       <c r="T13">
-        <v>0.06105237825204643</v>
+        <v>0.05401116756494525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.27845791044236</v>
+        <v>3.284408333333333</v>
       </c>
       <c r="H14">
-        <v>3.27845791044236</v>
+        <v>9.853225</v>
       </c>
       <c r="I14">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="J14">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.04557261818589</v>
+        <v>2.143236333333333</v>
       </c>
       <c r="N14">
-        <v>2.04557261818589</v>
+        <v>6.429709</v>
       </c>
       <c r="O14">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="P14">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="Q14">
-        <v>6.706323731475821</v>
+        <v>7.039263273502778</v>
       </c>
       <c r="R14">
-        <v>6.706323731475821</v>
+        <v>63.353369461525</v>
       </c>
       <c r="S14">
-        <v>0.03077472496877659</v>
+        <v>0.02837619391212633</v>
       </c>
       <c r="T14">
-        <v>0.03077472496877659</v>
+        <v>0.02837619391212633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.27845791044236</v>
+        <v>3.284408333333333</v>
       </c>
       <c r="H15">
-        <v>3.27845791044236</v>
+        <v>9.853225</v>
       </c>
       <c r="I15">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="J15">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.22031270336852</v>
+        <v>3.323978333333333</v>
       </c>
       <c r="N15">
-        <v>3.22031270336852</v>
+        <v>9.971935</v>
       </c>
       <c r="O15">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="P15">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="Q15">
-        <v>10.55765965645655</v>
+        <v>10.91730213781944</v>
       </c>
       <c r="R15">
-        <v>10.55765965645655</v>
+        <v>98.255719240375</v>
       </c>
       <c r="S15">
-        <v>0.04844816403903272</v>
+        <v>0.04400907743089454</v>
       </c>
       <c r="T15">
-        <v>0.04844816403903272</v>
+        <v>0.04400907743089454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.27845791044236</v>
+        <v>3.284408333333333</v>
       </c>
       <c r="H16">
-        <v>3.27845791044236</v>
+        <v>9.853225</v>
       </c>
       <c r="I16">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="J16">
-        <v>0.2381944609580188</v>
+        <v>0.2165853649315219</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.67175949224419</v>
+        <v>1.932870333333333</v>
       </c>
       <c r="N16">
-        <v>1.67175949224419</v>
+        <v>5.798611</v>
       </c>
       <c r="O16">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="P16">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="Q16">
-        <v>5.480793131705068</v>
+        <v>6.348335430052778</v>
       </c>
       <c r="R16">
-        <v>5.480793131705068</v>
+        <v>57.135018870475</v>
       </c>
       <c r="S16">
-        <v>0.02515087371152974</v>
+        <v>0.02559097311511124</v>
       </c>
       <c r="T16">
-        <v>0.02515087371152974</v>
+        <v>0.02559097311511124</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.07359776462136</v>
+        <v>3.837331666666667</v>
       </c>
       <c r="H17">
-        <v>3.07359776462136</v>
+        <v>11.511995</v>
       </c>
       <c r="I17">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="J17">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.83685501615593</v>
+        <v>4.879043333333333</v>
       </c>
       <c r="N17">
-        <v>4.83685501615593</v>
+        <v>14.63713</v>
       </c>
       <c r="O17">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741644</v>
       </c>
       <c r="P17">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741645</v>
       </c>
       <c r="Q17">
-        <v>14.86654676545448</v>
+        <v>18.72250748603889</v>
       </c>
       <c r="R17">
-        <v>14.86654676545448</v>
+        <v>168.50256737435</v>
       </c>
       <c r="S17">
-        <v>0.06822126492268731</v>
+        <v>0.07547288434926111</v>
       </c>
       <c r="T17">
-        <v>0.06822126492268731</v>
+        <v>0.07547288434926112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.07359776462136</v>
+        <v>3.837331666666667</v>
       </c>
       <c r="H18">
-        <v>3.07359776462136</v>
+        <v>11.511995</v>
       </c>
       <c r="I18">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="J18">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.05810525859197</v>
+        <v>4.07943</v>
       </c>
       <c r="N18">
-        <v>4.05810525859197</v>
+        <v>12.23829</v>
       </c>
       <c r="O18">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="P18">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="Q18">
-        <v>12.47298325140647</v>
+        <v>15.65412592095</v>
       </c>
       <c r="R18">
-        <v>12.47298325140647</v>
+        <v>140.88713328855</v>
       </c>
       <c r="S18">
-        <v>0.05723741418873</v>
+        <v>0.06310383564282881</v>
       </c>
       <c r="T18">
-        <v>0.05723741418873</v>
+        <v>0.06310383564282881</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.07359776462136</v>
+        <v>3.837331666666667</v>
       </c>
       <c r="H19">
-        <v>3.07359776462136</v>
+        <v>11.511995</v>
       </c>
       <c r="I19">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="J19">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.04557261818589</v>
+        <v>2.143236333333333</v>
       </c>
       <c r="N19">
-        <v>2.04557261818589</v>
+        <v>6.429709</v>
       </c>
       <c r="O19">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="P19">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="Q19">
-        <v>6.287267426626814</v>
+        <v>8.224308651050556</v>
       </c>
       <c r="R19">
-        <v>6.287267426626814</v>
+        <v>74.018777859455</v>
       </c>
       <c r="S19">
-        <v>0.02885171274262479</v>
+        <v>0.03315326732470118</v>
       </c>
       <c r="T19">
-        <v>0.02885171274262479</v>
+        <v>0.03315326732470118</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.07359776462136</v>
+        <v>3.837331666666667</v>
       </c>
       <c r="H20">
-        <v>3.07359776462136</v>
+        <v>11.511995</v>
       </c>
       <c r="I20">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="J20">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.22031270336852</v>
+        <v>3.323978333333333</v>
       </c>
       <c r="N20">
-        <v>3.22031270336852</v>
+        <v>9.971935</v>
       </c>
       <c r="O20">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="P20">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="Q20">
-        <v>9.897945926455252</v>
+        <v>12.75520731781389</v>
       </c>
       <c r="R20">
-        <v>9.897945926455252</v>
+        <v>114.796865860325</v>
       </c>
       <c r="S20">
-        <v>0.04542079622742132</v>
+        <v>0.05141791437210363</v>
       </c>
       <c r="T20">
-        <v>0.04542079622742132</v>
+        <v>0.05141791437210363</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.07359776462136</v>
+        <v>3.837331666666667</v>
       </c>
       <c r="H21">
-        <v>3.07359776462136</v>
+        <v>11.511995</v>
       </c>
       <c r="I21">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="J21">
-        <v>0.2233104656960421</v>
+        <v>0.2530470620700182</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.67175949224419</v>
+        <v>1.932870333333333</v>
       </c>
       <c r="N21">
-        <v>1.67175949224419</v>
+        <v>5.798611</v>
       </c>
       <c r="O21">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="P21">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="Q21">
-        <v>5.138316238346282</v>
+        <v>7.417064537660557</v>
       </c>
       <c r="R21">
-        <v>5.138316238346282</v>
+        <v>66.75358083894501</v>
       </c>
       <c r="S21">
-        <v>0.02357927761457868</v>
+        <v>0.02989916038112344</v>
       </c>
       <c r="T21">
-        <v>0.02357927761457868</v>
+        <v>0.02989916038112344</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.1699685243377</v>
+        <v>1.642000666666667</v>
       </c>
       <c r="H22">
-        <v>1.1699685243377</v>
+        <v>4.926002</v>
       </c>
       <c r="I22">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="J22">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.83685501615593</v>
+        <v>4.879043333333333</v>
       </c>
       <c r="N22">
-        <v>4.83685501615593</v>
+        <v>14.63713</v>
       </c>
       <c r="O22">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741644</v>
       </c>
       <c r="P22">
-        <v>0.3054996312423007</v>
+        <v>0.2982563153741645</v>
       </c>
       <c r="Q22">
-        <v>5.658968125687355</v>
+        <v>8.011392406028889</v>
       </c>
       <c r="R22">
-        <v>5.658968125687355</v>
+        <v>72.10253165426001</v>
       </c>
       <c r="S22">
-        <v>0.02596850296052987</v>
+        <v>0.03229497400322263</v>
       </c>
       <c r="T22">
-        <v>0.02596850296052987</v>
+        <v>0.03229497400322264</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.1699685243377</v>
+        <v>1.642000666666667</v>
       </c>
       <c r="H23">
-        <v>1.1699685243377</v>
+        <v>4.926002</v>
       </c>
       <c r="I23">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="J23">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.05810525859197</v>
+        <v>4.07943</v>
       </c>
       <c r="N23">
-        <v>4.05810525859197</v>
+        <v>12.23829</v>
       </c>
       <c r="O23">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="P23">
-        <v>0.25631317372576</v>
+        <v>0.2493758873413356</v>
       </c>
       <c r="Q23">
-        <v>4.747855421001908</v>
+        <v>6.698426779620002</v>
       </c>
       <c r="R23">
-        <v>4.747855421001908</v>
+        <v>60.28584101658001</v>
       </c>
       <c r="S23">
-        <v>0.02178748754508669</v>
+        <v>0.02700223728243854</v>
       </c>
       <c r="T23">
-        <v>0.02178748754508669</v>
+        <v>0.02700223728243854</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.1699685243377</v>
+        <v>1.642000666666667</v>
       </c>
       <c r="H24">
-        <v>1.1699685243377</v>
+        <v>4.926002</v>
       </c>
       <c r="I24">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="J24">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.04557261818589</v>
+        <v>2.143236333333333</v>
       </c>
       <c r="N24">
-        <v>2.04557261818589</v>
+        <v>6.429709</v>
       </c>
       <c r="O24">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="P24">
-        <v>0.1292000025735299</v>
+        <v>0.1310162111881293</v>
       </c>
       <c r="Q24">
-        <v>2.393255577524551</v>
+        <v>3.519195488157556</v>
       </c>
       <c r="R24">
-        <v>2.393255577524551</v>
+        <v>31.672759393418</v>
       </c>
       <c r="S24">
-        <v>0.0109824376405552</v>
+        <v>0.01418633878385221</v>
       </c>
       <c r="T24">
-        <v>0.0109824376405552</v>
+        <v>0.01418633878385221</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.1699685243377</v>
+        <v>1.642000666666667</v>
       </c>
       <c r="H25">
-        <v>1.1699685243377</v>
+        <v>4.926002</v>
       </c>
       <c r="I25">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="J25">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.22031270336852</v>
+        <v>3.323978333333333</v>
       </c>
       <c r="N25">
-        <v>3.22031270336852</v>
+        <v>9.971935</v>
       </c>
       <c r="O25">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="P25">
-        <v>0.2033975258877728</v>
+        <v>0.2031950655798417</v>
       </c>
       <c r="Q25">
-        <v>3.767664501466017</v>
+        <v>5.457974639318889</v>
       </c>
       <c r="R25">
-        <v>3.767664501466017</v>
+        <v>49.12177175387001</v>
       </c>
       <c r="S25">
-        <v>0.01728947832670811</v>
+        <v>0.02200181193900894</v>
       </c>
       <c r="T25">
-        <v>0.01728947832670811</v>
+        <v>0.02200181193900894</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.1699685243377</v>
+        <v>1.642000666666667</v>
       </c>
       <c r="H26">
-        <v>1.1699685243377</v>
+        <v>4.926002</v>
       </c>
       <c r="I26">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="J26">
-        <v>0.08500338561761957</v>
+        <v>0.1082792629645021</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.67175949224419</v>
+        <v>1.932870333333333</v>
       </c>
       <c r="N26">
-        <v>1.67175949224419</v>
+        <v>5.798611</v>
       </c>
       <c r="O26">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="P26">
-        <v>0.1055896665706366</v>
+        <v>0.1181565205165288</v>
       </c>
       <c r="Q26">
-        <v>1.955905986188478</v>
+        <v>3.173774375913556</v>
       </c>
       <c r="R26">
-        <v>1.955905986188478</v>
+        <v>28.563969383222</v>
       </c>
       <c r="S26">
-        <v>0.008975479144739701</v>
+        <v>0.01279390095597981</v>
       </c>
       <c r="T26">
-        <v>0.008975479144739701</v>
+        <v>0.01279390095597981</v>
       </c>
     </row>
   </sheetData>
